--- a/Documentatie/Timesheet/Timesheet April - Jelte Boumans.xlsx
+++ b/Documentatie/Timesheet/Timesheet April - Jelte Boumans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4838D-591E-41EC-A608-26F9819648DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DFA20-8535-4FD1-91FB-879F2ABBB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,27 +635,47 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6">
+        <v>8</v>
+      </c>
+      <c r="N2" s="6">
+        <v>8</v>
+      </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="R2" s="6">
+        <v>8</v>
+      </c>
+      <c r="S2" s="6">
+        <v>8</v>
+      </c>
+      <c r="T2" s="6">
+        <v>4</v>
+      </c>
       <c r="U2" s="6"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -667,11 +687,11 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -691,19 +711,31 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="T3" s="6">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6">
+        <v>8</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="Y3" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>4</v>
+      </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="6"/>
+      <c r="AF3" s="5"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -733,13 +765,19 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="Z4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>4</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="6"/>
+      <c r="AF4" s="5"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -775,7 +813,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
+      <c r="AF5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
